--- a/Feature-Analysis/Resize Feature/s_06_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_06_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.56199074071</v>
+        <v>738157.56199074071</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.56313657411</v>
+        <v>738157.56313657411</v>
       </c>
       <c r="C3" s="0">
         <v>99.000006169080734</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.56313657411</v>
+        <v>738157.56313657411</v>
       </c>
       <c r="C4" s="0">
         <v>99.000006169080734</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.56313657411</v>
+        <v>738157.56313657411</v>
       </c>
       <c r="C5" s="0">
         <v>99.000006169080734</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.56335648149</v>
+        <v>738157.56335648149</v>
       </c>
       <c r="C6" s="0">
         <v>118.00000369548798</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.56370370369</v>
+        <v>738157.56370370369</v>
       </c>
       <c r="C7" s="0">
         <v>148.00000190734863</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.56417824072</v>
+        <v>738157.56417824072</v>
       </c>
       <c r="C8" s="0">
         <v>189.0000008046627</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.56442129635</v>
+        <v>738157.56442129635</v>
       </c>
       <c r="C9" s="0">
         <v>210.00000759959221</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.56471064815</v>
+        <v>738157.56471064815</v>
       </c>
       <c r="C10" s="0">
         <v>235.00000275671482</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.56516203703</v>
+        <v>738157.56516203703</v>
       </c>
       <c r="C11" s="0">
         <v>274.00000244379044</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.56541666668</v>
+        <v>738157.56541666668</v>
       </c>
       <c r="C12" s="0">
         <v>296.00000381469727</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.5656597222</v>
+        <v>738157.5656597222</v>
       </c>
       <c r="C13" s="0">
         <v>317.00000055134296</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.56609953707</v>
+        <v>738157.56609953707</v>
       </c>
       <c r="C14" s="0">
         <v>355.00000566244125</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.56643518514</v>
+        <v>738157.56643518514</v>
       </c>
       <c r="C15" s="0">
         <v>383.99999924004078</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.56679398147</v>
+        <v>738157.56679398147</v>
       </c>
       <c r="C16" s="0">
         <v>415.00000208616257</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.56719907408</v>
+        <v>738157.56719907408</v>
       </c>
       <c r="C17" s="0">
         <v>450.00000335276127</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.56731481478</v>
+        <v>738157.56731481478</v>
       </c>
       <c r="C18" s="0">
         <v>459.99999940395355</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.56791666662</v>
+        <v>738157.56791666662</v>
       </c>
       <c r="C19" s="0">
         <v>511.99999898672104</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.5680092593</v>
+        <v>738157.5680092593</v>
       </c>
       <c r="C20" s="0">
         <v>520.00000588595867</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.56832175923</v>
+        <v>738157.56832175923</v>
       </c>
       <c r="C21" s="0">
         <v>547.00000025331974</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.56862268515</v>
+        <v>738157.56862268515</v>
       </c>
       <c r="C22" s="0">
         <v>573.00000004470348</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.56901620375</v>
+        <v>738157.56901620375</v>
       </c>
       <c r="C23" s="0">
         <v>607.00000673532486</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.56940972223</v>
+        <v>738157.56940972223</v>
       </c>
       <c r="C24" s="0">
         <v>641.00000336766243</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.57008101849</v>
+        <v>738157.57008101849</v>
       </c>
       <c r="C25" s="0">
         <v>699.00000058114529</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.57008101849</v>
+        <v>738157.57008101849</v>
       </c>
       <c r="C26" s="0">
         <v>699.00000058114529</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.5703125</v>
+        <v>738157.5703125</v>
       </c>
       <c r="C27" s="0">
         <v>719.00000274181366</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.57115740736</v>
+        <v>738157.57115740736</v>
       </c>
       <c r="C28" s="0">
         <v>791.99999906122684</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.57115740736</v>
+        <v>738157.57115740736</v>
       </c>
       <c r="C29" s="0">
         <v>791.99999906122684</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.57133101847</v>
+        <v>738157.57133101847</v>
       </c>
       <c r="C30" s="0">
         <v>806.99999816715717</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.57160879625</v>
+        <v>738157.57160879625</v>
       </c>
       <c r="C31" s="0">
         <v>830.99999874830246</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.57200231485</v>
+        <v>738157.57200231485</v>
       </c>
       <c r="C32" s="0">
         <v>865.00000543892384</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.57248842588</v>
+        <v>738157.57248842588</v>
       </c>
       <c r="C33" s="0">
         <v>906.99999891221523</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.57273148152</v>
+        <v>738157.57273148152</v>
       </c>
       <c r="C34" s="0">
         <v>928.00000570714474</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.57341435191</v>
+        <v>738157.57341435191</v>
       </c>
       <c r="C35" s="0">
         <v>987.00000755488873</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.57341435191</v>
+        <v>738157.57341435191</v>
       </c>
       <c r="C36" s="0">
         <v>987.00000755488873</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.57358796301</v>
+        <v>738157.57358796301</v>
       </c>
       <c r="C37" s="0">
         <v>1002.0000066608191</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.57406250003</v>
+        <v>738157.57406250003</v>
       </c>
       <c r="C38" s="0">
         <v>1043.0000055581331</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.57442129625</v>
+        <v>738157.57442129625</v>
       </c>
       <c r="C39" s="0">
         <v>1073.9999983459711</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.57464120374</v>
+        <v>738157.57464120374</v>
       </c>
       <c r="C40" s="0">
         <v>1093.0000059306622</v>
